--- a/data-raw/submissions/noone-thrones-pool.xlsx
+++ b/data-raw/submissions/noone-thrones-pool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylerbradley/Documents/thrones-pool/data-raw/submissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CB8EB96-ED36-A24F-9AC4-A6AB85B633D3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE528B1-995E-F24F-9A5C-0FBBEB1914AC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -772,23 +772,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1979,8 +1979,8 @@
   </sheetPr>
   <dimension ref="A1:IT44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" outlineLevelCol="1"/>
@@ -1992,11 +1992,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.5" customHeight="1">
-      <c r="A1" s="28"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1">
       <c r="A2" s="4"/>
@@ -2439,11 +2439,11 @@
     </row>
     <row r="26" spans="1:9" ht="20.75" customHeight="1">
       <c r="A26" s="6"/>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="17" t="s">
         <v>36</v>
       </c>
@@ -2453,11 +2453,11 @@
     </row>
     <row r="27" spans="1:9" ht="20.75" customHeight="1">
       <c r="A27" s="6"/>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="17" t="s">
         <v>32</v>
       </c>
@@ -2467,11 +2467,11 @@
     </row>
     <row r="28" spans="1:9" ht="20.75" customHeight="1">
       <c r="A28" s="6"/>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="28"/>
       <c r="E28" s="13" t="s">
         <v>6</v>
       </c>
@@ -2481,11 +2481,11 @@
     </row>
     <row r="29" spans="1:9" ht="32" customHeight="1">
       <c r="A29" s="6"/>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="26"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="28"/>
       <c r="E29" s="17" t="s">
         <v>5</v>
       </c>
@@ -2495,11 +2495,11 @@
     </row>
     <row r="30" spans="1:9" ht="31" customHeight="1">
       <c r="A30" s="6"/>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="28"/>
       <c r="E30" s="17" t="s">
         <v>7</v>
       </c>
@@ -2509,11 +2509,11 @@
     </row>
     <row r="31" spans="1:9" ht="23" customHeight="1">
       <c r="A31" s="6"/>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
       <c r="E31" s="13" t="s">
         <v>50</v>
       </c>
@@ -2523,11 +2523,11 @@
     </row>
     <row r="32" spans="1:9" ht="23" customHeight="1">
       <c r="A32" s="6"/>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="26"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="28"/>
       <c r="E32" s="14" t="s">
         <v>52</v>
       </c>
@@ -2537,11 +2537,11 @@
     </row>
     <row r="33" spans="1:9" ht="18" customHeight="1">
       <c r="A33" s="6"/>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="28"/>
       <c r="E33" s="14" t="s">
         <v>52</v>
       </c>
@@ -2551,13 +2551,13 @@
     </row>
     <row r="34" spans="1:9" ht="32.75" customHeight="1">
       <c r="A34" s="6"/>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="26"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="28"/>
       <c r="E34" s="17" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>26</v>
@@ -2616,6 +2616,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:D27"/>
@@ -2624,11 +2629,6 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:G25"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C24 E5:E24" xr:uid="{00000000-0002-0000-0000-000000000000}">
